--- a/example/excel2lang/lang_0_template.xlsx
+++ b/example/excel2lang/lang_0_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\langs-convertor\example\excel2lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9B86A9-6756-4DC9-ABCC-F636A44C6CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D47A3F-1A91-4462-98A8-8B8F7D6EF25D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="660" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14325" yWindow="2205" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -46,18 +46,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>标题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Home Newer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>OnlyInTemplate.aaa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -99,6 +91,14 @@
   </si>
   <si>
     <t>[[ID]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home Template</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板主页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +437,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -449,7 +449,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -458,10 +458,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -481,7 +481,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -495,37 +495,37 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
